--- a/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 5,04</t>
+          <t>-8,9; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 20,17</t>
+          <t>4,26; 20,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,24</t>
+          <t>-2,81; 3,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 33,33</t>
+          <t>-38,29; 33,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 63,35</t>
+          <t>10,25; 64,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 221,72</t>
+          <t>-56,2; 239,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 8,99</t>
+          <t>-2,99; 9,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 9,43</t>
+          <t>-2,93; 9,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 3,75</t>
+          <t>-8,71; 4,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,64</t>
+          <t>-6,66; 3,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 29,43</t>
+          <t>-8,11; 31,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 26,48</t>
+          <t>-7,08; 27,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 7,35</t>
+          <t>-15,12; 8,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 31,87</t>
+          <t>-36,4; 32,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 23,83</t>
+          <t>9,42; 23,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 15,24</t>
+          <t>-0,79; 14,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,25</t>
+          <t>-9,29; 4,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 3,83</t>
+          <t>-9,01; 3,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,23; 127,01</t>
+          <t>40,23; 129,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 37,56</t>
+          <t>-1,47; 36,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 15,15</t>
+          <t>-27,52; 17,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 17,71</t>
+          <t>-32,41; 21,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 1,66</t>
+          <t>-11,35; 1,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 10,56</t>
+          <t>-0,59; 10,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 11,93</t>
+          <t>-2,11; 12,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,29</t>
+          <t>-7,59; 6,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 6,16</t>
+          <t>-34,37; 7,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 29,43</t>
+          <t>-1,44; 28,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 43,29</t>
+          <t>-6,27; 41,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 32,47</t>
+          <t>-30,89; 34,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 6,6</t>
+          <t>-11,56; 7,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 1,01</t>
+          <t>-15,89; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 9,52</t>
+          <t>-6,58; 9,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,34</t>
+          <t>-5,9; 0,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 15,05</t>
+          <t>-22,92; 17,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 1,41</t>
+          <t>-21,69; 3,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 49,58</t>
+          <t>-24,45; 47,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-82,42; 43,61</t>
+          <t>-82,65; 34,04</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 18,64</t>
+          <t>4,68; 18,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 0,98</t>
+          <t>-16,04; 0,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 1,05</t>
+          <t>-14,69; 2,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 7,31</t>
+          <t>-4,84; 7,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,64; 135,82</t>
+          <t>22,88; 129,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 2,21</t>
+          <t>-28,81; 1,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 2,93</t>
+          <t>-33,66; 7,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 45,09</t>
+          <t>-21,01; 42,22</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 14,83</t>
+          <t>3,96; 14,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 3,95</t>
+          <t>-7,5; 3,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 7,19</t>
+          <t>-3,35; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 33,45</t>
+          <t>2,25; 32,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,87; 70,2</t>
+          <t>15,01; 65,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 9,91</t>
+          <t>-16,9; 8,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 19,87</t>
+          <t>-8,33; 21,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 110,25</t>
+          <t>6,58; 107,15</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,56</t>
+          <t>-1,62; 8,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,78</t>
+          <t>-6,42; 2,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,06</t>
+          <t>-5,17; 4,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 10,27</t>
+          <t>2,14; 10,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 22,79</t>
+          <t>-3,91; 23,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 12,46</t>
+          <t>-22,94; 10,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 15,84</t>
+          <t>-17,3; 17,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,61; 85,54</t>
+          <t>12,8; 86,03</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,96</t>
+          <t>2,69; 7,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,37</t>
+          <t>-2,2; 2,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,88</t>
+          <t>-1,57; 2,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 12,86</t>
+          <t>0,94; 11,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,29; 24,77</t>
+          <t>8,83; 25,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,19</t>
+          <t>-5,41; 6,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 8,25</t>
+          <t>-4,25; 8,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 73,1</t>
+          <t>4,73; 65,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 4,94</t>
+          <t>-8,17; 4,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 20,91</t>
+          <t>4,46; 21,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 33,58</t>
+          <t>-37,17; 28,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 64,2</t>
+          <t>11,02; 67,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 9,39</t>
+          <t>-2,94; 9,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 9,78</t>
+          <t>-3,19; 9,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 4,28</t>
+          <t>-9,45; 3,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 31,43</t>
+          <t>-8,41; 30,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 27,73</t>
+          <t>-7,92; 27,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 8,73</t>
+          <t>-16,69; 7,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 23,67</t>
+          <t>10,03; 24,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 14,79</t>
+          <t>-0,43; 15,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 4,61</t>
+          <t>-9,83; 4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,23; 129,32</t>
+          <t>39,48; 130,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 36,08</t>
+          <t>-0,88; 37,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 17,0</t>
+          <t>-28,41; 16,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 1,96</t>
+          <t>-11,85; 1,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,24</t>
+          <t>-0,47; 10,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 12,1</t>
+          <t>-2,44; 11,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 7,85</t>
+          <t>-35,79; 5,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 28,48</t>
+          <t>-1,18; 29,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 41,45</t>
+          <t>-7,09; 42,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 7,57</t>
+          <t>-11,88; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 2,35</t>
+          <t>-16,92; 2,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 9,27</t>
+          <t>-7,04; 8,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 17,98</t>
+          <t>-23,1; 16,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 3,76</t>
+          <t>-22,64; 3,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 47,03</t>
+          <t>-26,87; 47,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 18,35</t>
+          <t>4,71; 18,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 0,86</t>
+          <t>-16,15; 1,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 2,53</t>
+          <t>-15,75; 0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,88; 129,81</t>
+          <t>22,0; 136,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 1,93</t>
+          <t>-29,7; 3,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 7,5</t>
+          <t>-35,7; 2,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,15</t>
+          <t>3,68; 13,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,53</t>
+          <t>-7,63; 3,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,7</t>
+          <t>-3,5; 6,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,01; 65,65</t>
+          <t>14,7; 66,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 8,81</t>
+          <t>-16,91; 8,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 21,74</t>
+          <t>-8,41; 18,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 8,41</t>
+          <t>-1,69; 8,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 2,48</t>
+          <t>-5,88; 2,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 4,29</t>
+          <t>-4,97; 3,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 23,06</t>
+          <t>-3,97; 22,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 10,67</t>
+          <t>-21,46; 13,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 17,01</t>
+          <t>-16,61; 14,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,26</t>
+          <t>2,72; 7,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,46</t>
+          <t>-2,25; 2,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,92</t>
+          <t>-1,64; 2,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,83; 25,46</t>
+          <t>8,81; 25,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,32</t>
+          <t>-5,62; 6,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,43</t>
+          <t>-4,49; 8,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,45</t>
+          <t>-8,12; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 21,03</t>
+          <t>3,21; 20,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,17</t>
+          <t>-2,34; 3,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 28,2</t>
+          <t>-38,58; 33,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 67,49</t>
+          <t>7,82; 63,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,2; 239,79</t>
+          <t>-48,86; 221,72</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 9,19</t>
+          <t>-3,07; 8,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 9,73</t>
+          <t>-3,52; 9,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 3,62</t>
+          <t>-8,73; 3,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,66</t>
+          <t>-6,71; 3,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 30,26</t>
+          <t>-8,51; 29,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 27,24</t>
+          <t>-8,33; 26,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 7,02</t>
+          <t>-15,34; 7,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 32,61</t>
+          <t>-35,73; 31,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 24,2</t>
+          <t>9,95; 23,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 15,45</t>
+          <t>-1,34; 15,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 4,46</t>
+          <t>-10,18; 4,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 3,92</t>
+          <t>-8,66; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,48; 130,35</t>
+          <t>37,23; 127,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 37,47</t>
+          <t>-2,49; 37,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 16,14</t>
+          <t>-29,12; 15,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 21,25</t>
+          <t>-30,91; 17,71</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 1,29</t>
+          <t>-11,58; 1,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,63</t>
+          <t>-0,85; 10,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 11,78</t>
+          <t>-2,37; 11,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 6,03</t>
+          <t>-7,77; 5,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 5,17</t>
+          <t>-35,34; 6,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 29,96</t>
+          <t>-2,18; 29,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 42,01</t>
+          <t>-6,95; 43,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 34,69</t>
+          <t>-31,68; 32,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 7,03</t>
+          <t>-12,77; 6,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 2,16</t>
+          <t>-16,93; 1,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 8,87</t>
+          <t>-6,7; 9,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,43</t>
+          <t>-6,42; 0,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 16,48</t>
+          <t>-24,97; 15,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 3,45</t>
+          <t>-22,55; 1,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 47,07</t>
+          <t>-25,12; 49,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 34,04</t>
+          <t>-82,42; 43,61</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,71; 18,88</t>
+          <t>4,11; 18,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 1,56</t>
+          <t>-16,76; 0,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 0,91</t>
+          <t>-15,75; 1,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 7,13</t>
+          <t>-4,39; 7,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 136,56</t>
+          <t>19,64; 135,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 3,26</t>
+          <t>-30,28; 2,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 2,72</t>
+          <t>-35,59; 2,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 42,22</t>
+          <t>-19,42; 45,09</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 13,83</t>
+          <t>4,13; 14,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 3,34</t>
+          <t>-7,44; 3,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 6,94</t>
+          <t>-3,86; 7,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 32,53</t>
+          <t>2,48; 33,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,7; 66,74</t>
+          <t>15,87; 70,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 8,7</t>
+          <t>-16,78; 9,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 18,94</t>
+          <t>-9,26; 19,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 107,15</t>
+          <t>7,19; 110,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,41</t>
+          <t>-1,88; 8,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,99</t>
+          <t>-5,97; 2,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,59</t>
+          <t>-4,89; 4,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,14; 10,29</t>
+          <t>2,4; 10,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 22,89</t>
+          <t>-4,42; 22,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 13,09</t>
+          <t>-21,45; 12,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 14,27</t>
+          <t>-16,11; 15,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,8; 86,03</t>
+          <t>14,61; 85,54</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,25</t>
+          <t>2,5; 6,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,51</t>
+          <t>-2,15; 2,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,98</t>
+          <t>-1,76; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 11,92</t>
+          <t>0,92; 12,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 25,37</t>
+          <t>8,29; 24,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 6,59</t>
+          <t>-5,26; 6,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,36</t>
+          <t>-4,78; 8,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 65,43</t>
+          <t>4,85; 73,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P5_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>20,7%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 10,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,24</t>
+          <t>-2,62; 3,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,92; 25,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 221,72</t>
+          <t>-52,91; 218,97</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>-8,31%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,64</t>
+          <t>-6,81; 3,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 31,87</t>
+          <t>-36,07; 33,55</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,45%</t>
+          <t>-9,41%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 3,83</t>
+          <t>-8,68; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 17,71</t>
+          <t>-30,97; 18,08</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-20,29%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 10,56</t>
+          <t>1,59; 15,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 5,29</t>
+          <t>-13,74; 2,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 29,43</t>
+          <t>4,52; 52,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 32,47</t>
+          <t>-56,36; 10,76</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-53,96%</t>
+          <t>-57,16%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,34</t>
+          <t>-6,54; 0,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-82,42; 43,61</t>
+          <t>-85,31; 31,52</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 7,31</t>
+          <t>-4,24; 7,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 45,09</t>
+          <t>-19,28; 46,84</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>57,62%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 33,45</t>
+          <t>2,07; 43,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 110,25</t>
+          <t>5,93; 150,66</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>80,08%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 10,27</t>
+          <t>3,52; 17,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,61; 85,54</t>
+          <t>21,74; 305,66</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>37,2%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 12,86</t>
+          <t>1,02; 21,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 73,1</t>
+          <t>5,52; 132,11</t>
         </is>
       </c>
     </row>
